--- a/src/main/resources/outputs_comp/f5_out_out.xlsx
+++ b/src/main/resources/outputs_comp/f5_out_out.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuvus\Projects\tiny_generator\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuvus\Projects\tinyGPDataGenerator\src\main\resources\outputs_comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1366775B-5A47-47DB-96A3-5CCC93C03D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F314F5-FEA7-44DD-A83B-13ED77EDA880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,6 +953,889 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$A$1:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2994.6465159113218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1465.7030072145051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256.47816873155608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184.3638006356293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>183.65288466214079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170.78167370356931</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>171.48427454982931</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>183.21284147237989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190.85395828531139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>187.95012145971711</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181.9371569045793</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175.2971446667303</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>189.16291655149439</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>178.70139771194991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>166.4459196161601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>148.04293000511831</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131.39590979983001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122.7103713420433</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>136.48889906083051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>110.528219566328</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100.94878417006559</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1192.1206063168081</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>445.96719725584859</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>505.91148862867033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>245.5887016598395</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>104.642127771548</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>90.972161996553965</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.301957062943941</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>104.0905710405449</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69.70585918187885</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70.507287204312689</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76.173763151064023</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77.065357079663784</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>63.40648828901822</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67.085781777996175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70.253557951281337</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>63.060458656246468</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.227062908818951</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.611667823794058</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>68.240751713347152</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72.423143598109192</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>67.692299321469278</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62.922536874395611</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>84.097097075122221</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48.98525085885408</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47.715016159961223</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53.367104849776076</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54.985952627744602</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>54.978360866368639</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>150.38176937020449</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>65.066989147045149</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.945703568231927</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45.334768144834797</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>52.788995072070612</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>63.510884565902671</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42.856583787358552</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>579.69733266263154</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51.838365746470842</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>143.41311397000311</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>550.69659715219689</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>510.43495732823772</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>98.00127392083661</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>90.366079807673955</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>84.691024556388413</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>125.7815139374636</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>60.420921281109123</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>542.36353038787786</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>61.404759643358943</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89.706887671815693</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>78.23970448523184</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75.120305364862361</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>79.119312915666683</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>83.677569024531778</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>242.9673816592765</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>96.814021241404788</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>176.26928324696519</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>68.626281627245902</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3171.4455849618012</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>60.406598835944067</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>133.42814061870399</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>47.835746583547113</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>61.368089744652259</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>51.021460789085999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42.492426315926913</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>105.8948687092122</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>512.84476758722997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88.432795157803298</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>204.31791764334781</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42.338445408138561</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>148.88845107010479</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>656.40549508572394</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>130.90345584448269</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>139.0763009546198</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>131.32852729071021</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36.210780552427302</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>39.205839268337932</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>199.1073004761061</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>989.89991503585497</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>39.73408573674142</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>209.73056599099621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B04-4C93-A0B7-2846AE4A5370}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$1:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>65.266522468173136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.266522468173136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.266522468173136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.266522468173136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.243585353049809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.768844921019877</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.276704842293732</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.599488040301779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.599488040301779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.31854691383635</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.31854691383635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.969334057861502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.969334057861502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.969334057861502</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.613508728010721</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.167159941419111</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.516056568663771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.27771140457229</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.27514263745061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.19774714116711</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.21222493539511</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.208094062773659</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.552523449000221</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.02736990274817</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.5132381666236</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.079925168193981</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.079925168193981</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.8919739096614769</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.4633698480113644</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4633698480113644</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.449194647785621</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.8886344324492219</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.8886344324492219</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.8886344324492219</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.2949983006207049</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.1685231406565233</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.5092100824514443</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5092100824514443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.2873042268715942</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.7031746034961337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.8242909797558546</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.6010395386603999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.5475088020598662</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.2275972553595089</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2275972553595089</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.2244300905504417</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9353002709422791</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.7566471824245729</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5992624631122472</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5537919585471038</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.3831970195977501</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.3309231360920228</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.700517179498124</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.592130701729574</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.4694249263507602</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.4694249263507602</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.4406907906995761</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.0774431280454162</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.0763213204820148</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.99181197151302</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.99181197151302</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.738269290577751</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.738269290577751</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.515843623676131</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.497776437027196</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.497776437027196</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.459784151715976</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.459780680555995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.29529503829191</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.29529503829191</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.292104920184693</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.232679279849672</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2267686935679989</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.217588757416062</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.095040046523384</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.095040046523384</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.095040046523384</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.094520737444401</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.038759021325055</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.90188613537122153</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.90188613537122153</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.90188613537122153</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.90166761039310561</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.90166761039310561</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.88164037125335204</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.83060172480043337</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.77927904817445759</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.7779688941331262</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.7779688941331262</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.7695875281691209</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.73412294691594693</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.73412294691594693</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.73412294691594693</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.7331378619700244</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.73170378794201318</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.64489048551836148</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.64489048551836148</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.64055363784091557</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.62326144213691803</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.61491973421132329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B04-4C93-A0B7-2846AE4A5370}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1098419264"/>
+        <c:axId val="1055838688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1098419264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1055838688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1055838688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098419264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -993,7 +1876,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1542,6 +2981,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12D088A-B854-4602-AD40-781847A8D60D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1837,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/outputs_comp/f5_out_out.xlsx
+++ b/src/main/resources/outputs_comp/f5_out_out.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuvus\Projects\tinyGPDataGenerator\src\main\resources\outputs_comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F314F5-FEA7-44DD-A83B-13ED77EDA880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E9AD6C-6D32-44BF-8275-99EBD5F6DC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1836,6 +1836,954 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>f(x, y) = sin(x/2) + 2 * cos(x)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Avg fit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$A$1:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2994.6465159113218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1465.7030072145051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256.47816873155608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184.3638006356293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>183.65288466214079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170.78167370356931</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>171.48427454982931</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>183.21284147237989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190.85395828531139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>187.95012145971711</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181.9371569045793</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175.2971446667303</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>189.16291655149439</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>178.70139771194991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>166.4459196161601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>148.04293000511831</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131.39590979983001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122.7103713420433</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>136.48889906083051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>110.528219566328</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100.94878417006559</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1192.1206063168081</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>445.96719725584859</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>505.91148862867033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>245.5887016598395</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>104.642127771548</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>90.972161996553965</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.301957062943941</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>104.0905710405449</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69.70585918187885</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70.507287204312689</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76.173763151064023</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77.065357079663784</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>63.40648828901822</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67.085781777996175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70.253557951281337</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>63.060458656246468</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.227062908818951</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.611667823794058</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>68.240751713347152</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72.423143598109192</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>67.692299321469278</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62.922536874395611</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>84.097097075122221</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48.98525085885408</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47.715016159961223</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53.367104849776076</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54.985952627744602</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>54.978360866368639</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>150.38176937020449</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>65.066989147045149</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.945703568231927</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45.334768144834797</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>52.788995072070612</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>63.510884565902671</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42.856583787358552</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>579.69733266263154</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51.838365746470842</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>143.41311397000311</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>550.69659715219689</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>510.43495732823772</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>98.00127392083661</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>90.366079807673955</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>84.691024556388413</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>125.7815139374636</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>60.420921281109123</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>542.36353038787786</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>61.404759643358943</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89.706887671815693</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>78.23970448523184</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75.120305364862361</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>79.119312915666683</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>83.677569024531778</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>242.9673816592765</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>96.814021241404788</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>176.26928324696519</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>68.626281627245902</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3171.4455849618012</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>60.406598835944067</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>133.42814061870399</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>47.835746583547113</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>61.368089744652259</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>51.021460789085999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42.492426315926913</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>105.8948687092122</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>512.84476758722997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88.432795157803298</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>204.31791764334781</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42.338445408138561</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>148.88845107010479</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>656.40549508572394</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>130.90345584448269</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>139.0763009546198</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>131.32852729071021</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36.210780552427302</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>39.205839268337932</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>199.1073004761061</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>989.89991503585497</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>39.73408573674142</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>209.73056599099621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59BE-4E62-8A86-42D03CB63CCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Best fit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$1:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>65.266522468173136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.266522468173136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.266522468173136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.266522468173136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.243585353049809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.768844921019877</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.276704842293732</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.599488040301779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.599488040301779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.31854691383635</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.31854691383635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.969334057861502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.969334057861502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.969334057861502</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.613508728010721</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.167159941419111</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.516056568663771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.27771140457229</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.27514263745061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.19774714116711</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.21222493539511</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.208094062773659</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.552523449000221</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.02736990274817</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.5132381666236</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.079925168193981</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.079925168193981</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.8919739096614769</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.4633698480113644</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4633698480113644</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.449194647785621</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.8886344324492219</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.8886344324492219</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.8886344324492219</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.2949983006207049</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.1685231406565233</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.5092100824514443</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5092100824514443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.2873042268715942</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.7031746034961337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.8242909797558546</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.6010395386603999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.5475088020598662</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.2275972553595089</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2275972553595089</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.2244300905504417</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9353002709422791</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.7566471824245729</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5992624631122472</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5537919585471038</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.3831970195977501</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.3309231360920228</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.700517179498124</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.592130701729574</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.4694249263507602</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.4694249263507602</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.4406907906995761</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.0774431280454162</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.0763213204820148</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.99181197151302</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.99181197151302</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.738269290577751</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.738269290577751</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.515843623676131</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.497776437027196</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.497776437027196</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.459784151715976</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.459780680555995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.29529503829191</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.29529503829191</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.292104920184693</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.232679279849672</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2267686935679989</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.217588757416062</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.095040046523384</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.095040046523384</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.095040046523384</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.094520737444401</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.038759021325055</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.90188613537122153</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.90188613537122153</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.90188613537122153</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.90166761039310561</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.90166761039310561</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.88164037125335204</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.83060172480043337</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.77927904817445759</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.7779688941331262</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.7779688941331262</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.7695875281691209</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.73412294691594693</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.73412294691594693</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.73412294691594693</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.7331378619700244</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.73170378794201318</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.64489048551836148</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.64489048551836148</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.64055363784091557</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.62326144213691803</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.61491973421132329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-59BE-4E62-8A86-42D03CB63CCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1098419264"/>
+        <c:axId val="1055838688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1098419264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1055838688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1055838688"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098419264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1916,6 +2864,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2433,6 +3421,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3019,6 +4523,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FC8BCD-54BA-4779-B1DA-9A5333B845EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3314,8 +4856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
